--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed4/result_data_KNN.xlsx
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.758</v>
+        <v>17.346</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.596</v>
+        <v>16.593</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.552</v>
+        <v>16.314</v>
       </c>
     </row>
     <row r="21">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.531</v>
       </c>
     </row>
     <row r="28">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.11</v>
+        <v>16.407</v>
       </c>
     </row>
     <row r="36">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.102</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="70">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.433</v>
       </c>
     </row>
     <row r="77">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.35</v>
+        <v>16.507</v>
       </c>
     </row>
     <row r="79">
@@ -1834,7 +1834,7 @@
         <v>-7.37</v>
       </c>
       <c r="E82" t="n">
-        <v>16.464</v>
+        <v>16.779</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.776</v>
+        <v>16.935</v>
       </c>
     </row>
     <row r="84">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.256</v>
+        <v>17.103</v>
       </c>
     </row>
     <row r="94">
